--- a/biology/Zoologie/Conus_darkini/Conus_darkini.xlsx
+++ b/biology/Zoologie/Conus_darkini/Conus_darkini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus darkini est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 34 mm et 87 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large des Philippines, de la Nouvelle-Calédonie et des Îles Loyauté.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve de l'île Balut dans le sud des Philippines, d'Ogasawara, des îles Ryukyu et des îles Loyauté. Elle a une distribution en profondeur de 280 à 575 m. Cette espèce est très recherchée dans le commerce des spécimens de coquilles, cependant, la disponibilité est très rare, et elle commande des prix élevés. Il n'y a pas de mesures de conservation connues actuellement pour cette espèce. Étant donné sa profondeur, elle est moins susceptible d'être affectée par les perturbations anthropiques[1].
 </t>
         </is>
       </c>
@@ -573,21 +587,132 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve de l'île Balut dans le sud des Philippines, d'Ogasawara, des îles Ryukyu et des îles Loyauté. Elle a une distribution en profondeur de 280 à 575 m. Cette espèce est très recherchée dans le commerce des spécimens de coquilles, cependant, la disponibilité est très rare, et elle commande des prix élevés. Il n'y a pas de mesures de conservation connues actuellement pour cette espèce. Étant donné sa profondeur, elle est moins susceptible d'être affectée par les perturbations anthropiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_darkini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_darkini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus darkini a été décrite pour la première fois en 1993 par les malacologistes Dieter Röckel (d) (1922-2015), Werner Korn et Georges Richard (d) dans la publication intitulée « La Conchiglia »[2],[3].
-Synonymes
-Conus (Embrikena) darkini Röckel, Korn &amp; Richard, 1993 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus darkini a été décrite pour la première fois en 1993 par les malacologistes Dieter Röckel (d) (1922-2015), Werner Korn et Georges Richard (d) dans la publication intitulée « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_darkini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_darkini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Embrikena) darkini Röckel, Korn &amp; Richard, 1993 · appellation alternative
 Embrikena darkini (Röckel, Korn &amp; Richard, 1993) · non accepté
 Kurodaconus darkini (Röckel, Korn &amp; Richard, 1993) · non accepté
 Profundiconus darkini (Röckel, Korn &amp; Richard, 1993) · non accepté
-Turriconus (Kurodaconus) darkini (Röckel, Korn &amp; Richard, 1993) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus darkini dans les principales bases sont les suivants :
+Turriconus (Kurodaconus) darkini (Röckel, Korn &amp; Richard, 1993) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_darkini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_darkini</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus darkini dans les principales bases sont les suivants :
 CoL : XX9P - GBIF : 6509676 - iNaturalist : 431934 - IRMNG : 11897248 - NCBI : 592106 - TAXREF : 137959 - UICN : 192508 - WoRMS : 426475
 </t>
         </is>
